--- a/templates/uploadStudentTemplate.xlsx
+++ b/templates/uploadStudentTemplate.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\golang\src\github.com\paulantezana\review\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E2C665FE-F5E7-428A-B080-D42582D91EDC}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C78D6EE7-1D50-4D59-A94B-30D16A390498}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7695" xr2:uid="{CB79B62A-3256-4442-8258-0A1537B8AACC}"/>
   </bookViews>
   <sheets>
-    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="179021"/>
   <extLst>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>DNI</t>
   </si>
@@ -43,19 +43,21 @@
   <si>
     <t>Telefono</t>
   </si>
-  <si>
-    <t>Estado</t>
-  </si>
-  <si>
-    <t>paul yoel antezana yana</t>
-  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -83,8 +85,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -399,10 +402,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4AC6DA9A-814C-4995-A371-4356F22A5A66}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -413,7 +416,7 @@
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -426,19 +429,12 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>73975755</v>
-      </c>
-      <c r="B2" t="s">
-        <v>5</v>
-      </c>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B8" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>